--- a/biology/Botanique/Chia_Jui_Chen/Chia_Jui_Chen.xlsx
+++ b/biology/Botanique/Chia_Jui_Chen/Chia_Jui_Chen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Chia Jui Chen ou Jiarui Chen ( n. 1935) Il est un botaniste chinois, qui a notamment travaillé dans l'Institut de Botanique de l'Académie Chinoise des Sciences.
@@ -512,11 +524,47 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chia Jui Chen; Meghan G. Mendenhall; Billie L. Turner. 1994. "Taxonomy of Thermopsis (Fabaceae) in North America". Annals of the Missouri Botanical Garden 81 (4): 714. doi:10.2307/2399917
-Livres
-Shu-Hsia Fu, Li-Kuo Fu, Wan-Chün Cheng, Cheng-de Chu, Chi-Sont Chao, Yü-Wu Law, Chia-Jui Chen, Hung-Pin Tsiu, Wen-Tsai Wang. 1978. Flore reipublicae popularis Sinicae delectis florae reipublicae popularis Sinicae agenda academiae Sinicae édite: Tom 7. Gymnospermae. Cycadales-Gnetales. Volume 7 de Flore reipublicae popularis Sinicae. Ed. Science Press. 542 pp.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chia Jui Chen; Meghan G. Mendenhall; Billie L. Turner. 1994. "Taxonomy of Thermopsis (Fabaceae) in North America". Annals of the Missouri Botanical Garden 81 (4): 714. doi:10.2307/2399917</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chia_Jui_Chen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chia_Jui_Chen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shu-Hsia Fu, Li-Kuo Fu, Wan-Chün Cheng, Cheng-de Chu, Chi-Sont Chao, Yü-Wu Law, Chia-Jui Chen, Hung-Pin Tsiu, Wen-Tsai Wang. 1978. Flore reipublicae popularis Sinicae delectis florae reipublicae popularis Sinicae agenda academiae Sinicae édite: Tom 7. Gymnospermae. Cycadales-Gnetales. Volume 7 de Flore reipublicae popularis Sinicae. Ed. Science Press. 542 pp.
 Chia-Jui Chen, Peter C. Hoch, Peter H. Raven. 1992. Systematics of Epilobium (Onagraceae) in la Chine. Volume 34 de Systematic botany monographs. Ed. Am. Soc. of Plant Taxonomists. 209 pp.  (ISBN 0912861347)
 Hsuan Keng, De-yuan Hong, Chia-Jui Chen. 1993. Orders and families of seed plants of la Chine. Ed. World Scientific. 444 pp.  (ISBN 9810214812)
 1999. Biology and conservation of cycads: proceedings of the fourth International Conference on Cycad Biology held in Panzhihua, Sichuan, la Chine, 1-5 May 1996. Ed. International Academic Publ. 415 pp.  (ISBN 7800034526)
